--- a/cves/cve_data_amazon.xlsx
+++ b/cves/cve_data_amazon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Patch Link (NVD)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -453,9 +458,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-39951</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-39951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -465,9 +471,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-36467</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-36467</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -477,9 +484,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-33777</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-33777</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -489,9 +497,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-33248</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-33248</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -501,9 +510,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-32751</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-32751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -513,9 +523,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-28937</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-28937</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -525,9 +536,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-22680</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-22680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -537,9 +549,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-1385</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-1385</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -549,9 +562,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-1384</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-1384</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -561,9 +575,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-1383</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-1383</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -573,9 +588,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-0423</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-0423</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -585,9 +601,10 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-0075</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2023-0075</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -597,9 +614,10 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-46174</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-46174</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -609,9 +627,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-4369</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-4369</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -621,9 +640,10 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-41906</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-41906</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -633,9 +653,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-41828</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-41828</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -645,9 +666,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-40968</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-40968</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -657,9 +679,10 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-37437</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-37437</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -669,9 +692,10 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-34844</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-34844</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -681,9 +705,10 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-34266</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-34266</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -693,9 +718,10 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-33915</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-33915</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -705,9 +731,10 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-31159</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-31159</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -717,9 +744,10 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-30240</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-30240</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -729,9 +757,10 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-30239</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-30239</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -741,9 +770,10 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-29972</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-29972</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -753,9 +783,10 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-29971</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-29971</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -765,9 +796,10 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-29527</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-29527</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -777,9 +809,10 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-29240</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-29240</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -789,9 +822,10 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-25809</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-25809</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -801,9 +835,10 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-2541</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-2541</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -813,9 +848,10 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-25166</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-25166</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -825,9 +861,10 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-25165</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-25165</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -837,9 +874,10 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-24840</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-24840</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -849,9 +887,10 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-23511</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-23511</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -861,9 +900,10 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-1830</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-1830</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -873,9 +913,10 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-1805</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-1805</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -885,9 +926,10 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-1645</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-1645</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -897,9 +939,10 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-44833</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-44833</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -909,9 +952,10 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-43959</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-43959</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -921,9 +965,10 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-43638</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-43638</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -933,9 +978,10 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-43637</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-43637</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -945,9 +991,10 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-40831</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-40831</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -957,9 +1004,10 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-40830</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-40830</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -969,9 +1017,10 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-40829</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-40829</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -981,9 +1030,10 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-40828</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-40828</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -993,9 +1043,10 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-38384</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-38384</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1005,9 +1056,10 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-38112</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-38112</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1017,9 +1069,10 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-37436</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-37436</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1029,9 +1082,10 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-32717</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-32717</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1041,9 +1095,10 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-32020</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-32020</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1053,9 +1108,10 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-31572</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-31572</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1065,9 +1121,10 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-31571</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-31571</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1077,9 +1134,10 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-3062</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-3062</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1089,9 +1147,10 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-30355</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-30355</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1101,9 +1160,10 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-30354</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-30354</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1113,9 +1173,10 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-23051</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-23051</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1125,9 +1186,10 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-21390</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-21390</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1137,9 +1199,10 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-21362</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-21362</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1149,9 +1212,10 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-21304</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-21304</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1161,9 +1225,10 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-20146</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-20146</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1173,9 +1238,10 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-20077</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-20077</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1185,9 +1251,10 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-5856</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-5856</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1197,9 +1264,10 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-36363</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-36363</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1209,9 +1277,10 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-28199</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-28199</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1221,9 +1290,10 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-27174</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-27174</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1233,9 +1303,10 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2188</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2188</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1245,9 +1316,10 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2187</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2187</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1257,9 +1329,10 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2186</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2186</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1269,9 +1342,10 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2185</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2185</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1281,9 +1355,10 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2091</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2091</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1293,9 +1368,10 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2090</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-2090</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1305,9 +1381,10 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-1760</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-1760</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1317,9 +1394,10 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-13261</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-13261</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1329,9 +1407,10 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-9864</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-9864</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1341,9 +1420,10 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-9483</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-9483</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1353,9 +1433,10 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-7399</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-7399</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1365,9 +1446,10 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-6003</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-6003</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1377,9 +1459,10 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-15027</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-15027</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1389,9 +1472,10 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-14652</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-14652</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1401,9 +1485,10 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-13120</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-13120</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1413,9 +1498,10 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-10364</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-10364</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1425,9 +1511,10 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-1003063</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-1003063</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1437,9 +1524,10 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-9070</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-9070</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1449,9 +1537,10 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-9057</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-9057</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1461,9 +1550,10 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19981</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19981</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1473,9 +1563,10 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19190</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19190</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1485,9 +1576,10 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19189</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19189</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1497,9 +1589,10 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19188</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19188</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1509,9 +1602,10 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19187</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19187</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1521,9 +1615,10 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19186</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-19186</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1533,9 +1628,10 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16603</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16603</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1545,9 +1641,10 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16602</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16602</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1557,9 +1654,10 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16601</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16601</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1569,9 +1667,10 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16600</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16600</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1581,9 +1680,10 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16599</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16599</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1593,9 +1693,10 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16598</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16598</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1605,9 +1706,10 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16528</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16528</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1617,9 +1719,10 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16527</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16527</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1629,9 +1732,10 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16526</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16526</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1641,9 +1745,10 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16525</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16525</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1653,9 +1758,10 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16524</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16524</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1665,9 +1771,10 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16523</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16523</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1677,9 +1784,10 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16522</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-16522</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1689,9 +1797,10 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-15869</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-15869</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1701,9 +1810,10 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-1169</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-1169</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1713,9 +1823,10 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11567</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11567</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1725,9 +1836,10 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11025</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11025</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1737,9 +1849,10 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11024</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11024</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1749,9 +1862,10 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11023</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11023</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1761,9 +1875,10 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11022</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11022</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1773,9 +1888,10 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11021</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11021</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1785,9 +1901,10 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11020</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11020</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1797,9 +1914,10 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11019</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-11019</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1809,9 +1927,10 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-9450</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-9450</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1821,9 +1940,10 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-6189</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-6189</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1833,9 +1953,10 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-18096</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-18096</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1845,9 +1966,10 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-17572</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-17572</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1857,9 +1979,10 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-17069</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-17069</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1869,9 +1992,10 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-16867</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-16867</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1881,9 +2005,10 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-16865</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-16865</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1893,9 +2018,10 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-14622</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2017-14622</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1905,9 +2031,10 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2016-2084</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2016-2084</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1917,9 +2044,10 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-9506</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-9506</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1929,9 +2057,10 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-9464</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-9464</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1941,9 +2070,10 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-9463</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-9463</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1953,9 +2083,10 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-7292</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-7292</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1965,9 +2096,10 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-3373</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-3373</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1977,9 +2109,10 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-1426</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2015-1426</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1989,9 +2122,10 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-5935</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-5935</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2001,9 +2135,10 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-4598</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-4598</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2013,9 +2148,10 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-4577</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-4577</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2025,9 +2161,10 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-2683</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-2683</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2037,9 +2174,10 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-2682</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-2682</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2049,9 +2187,10 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-2681</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2014-2681</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2061,9 +2200,10 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-0302</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-0302</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2073,9 +2213,10 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-6087</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-6087</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2085,9 +2226,10 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5817</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5817</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2097,9 +2239,10 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5783</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5783</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2109,9 +2252,10 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5782</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5782</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2121,9 +2265,10 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5781</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5781</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2133,9 +2278,10 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5780</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5780</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2145,9 +2291,10 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5571</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5571</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2157,9 +2304,10 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5483</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-5483</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2169,9 +2317,10 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-4249</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-4249</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2181,9 +2330,10 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-4248</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-4248</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2193,9 +2343,10 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-3427</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2012-3427</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2205,9 +2356,10 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2010-5268</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2010-5268</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2217,9 +2369,10 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2008-1123</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2008-1123</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2229,9 +2382,10 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2006-0334</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2006-0334</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2241,9 +2395,10 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2005-4044</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2005-4044</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2253,9 +2408,10 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2005-3976</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2005-3976</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2265,9 +2421,10 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2005-3908</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2005-3908</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2277,9 +2434,10 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https//cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2005-1403</t>
-        </is>
-      </c>
+          <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2005-1403</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
